--- a/data/metadata/Informe-01-010021-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010021-A-TC-TM-TP.xlsx
@@ -103,7 +103,7 @@
     <t>iaest-measure:urbano-parcelas-edificadas-de-100-a-500-m2</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-nombre</t>
+    <t>sdmx-dimension:refArea</t>
   </si>
   <si>
     <t>iaest-measure:urbano-solares-de-0-a-100-m2</t>
@@ -115,9 +115,6 @@
     <t>iaest-measure:urbano-solares-de-mas-de-10000-m2</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
     <t>iaest-measure:urbano-parcelas-edificadas-de-1000-a-10000-m2</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>skos:Concept</t>
+  </si>
+  <si>
+    <t>URI-Municipio</t>
   </si>
   <si>
     <t>URI-Provincia</t>
@@ -323,42 +323,42 @@
         <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>26</v>
@@ -367,10 +367,10 @@
         <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>26</v>
@@ -379,90 +379,90 @@
         <v>38</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="R3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>43</v>

--- a/data/metadata/Informe-01-010021-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010021-A-TC-TM-TP.xlsx
@@ -11,141 +11,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
-  <si>
-    <t>urbano-parcelas-edificadas-total</t>
-  </si>
-  <si>
-    <t>urbano-parcelas-edificadas-de-mas-de-10000-m2</t>
-  </si>
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>urbano-solares-de-1000-a-10000-m2</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>urbano-solares-de-500-a-1000-m2</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>urbano-parcelas-edificadas-de-0-a-100-m2</t>
-  </si>
-  <si>
-    <t>urbano-parcelas-edificadas-de-100-a-500-m2</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>urbano-solares-de-0-a-100-m2</t>
-  </si>
-  <si>
-    <t>urbano-solares-de-100-a-500-m2</t>
-  </si>
-  <si>
-    <t>urbano-solares-de-mas-de-10000-m2</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>urbano-parcelas-edificadas-de-1000-a-10000-m2</t>
-  </si>
-  <si>
-    <t>urbano-parcelas-edificadas-de-500-a-1000-m2</t>
-  </si>
-  <si>
-    <t>urbano-solares-total</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Urbano, parcelas edificadas de 500 a 1000 m2</t>
+  </si>
+  <si>
+    <t>Urbano, solares total</t>
+  </si>
+  <si>
+    <t>Urbano, parcelas edificadas de 1000 a 10000 m2</t>
+  </si>
+  <si>
+    <t>Comarca código</t>
+  </si>
+  <si>
+    <t>Urbano, solares de 500 a 1000 m2</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Urbano, solares de 0 a 100 m2</t>
+  </si>
+  <si>
+    <t>Urbano, parcelas edificadas total</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>Urbano, solares de más de 10000 m2</t>
+  </si>
+  <si>
+    <t>Urbano, solares de 100 a 500 m2</t>
+  </si>
+  <si>
+    <t>Urbano, parcelas edificadas de 100 a 500 m2</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Urbano, parcelas edificadas de más de 10000 m2</t>
+  </si>
+  <si>
+    <t>CCAA código</t>
+  </si>
+  <si>
+    <t>Urbano, solares de 1000 a 10000 m2</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>Urbano, parcelas edificadas de 0 a 100 m2</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:urbano-parcelas-edificadas-de-500-a-1000-m2</t>
+  </si>
+  <si>
+    <t>iaest-measure:urbano-solares-total</t>
+  </si>
+  <si>
+    <t>iaest-measure:urbano-parcelas-edificadas-de-1000-a-10000-m2</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:urbano-solares-de-500-a-1000-m2</t>
+  </si>
+  <si>
+    <t>iaest-measure:urbano-solares-de-0-a-100-m2</t>
   </si>
   <si>
     <t>iaest-measure:urbano-parcelas-edificadas-total</t>
   </si>
   <si>
+    <t>iaest-measure:urbano-solares-de-mas-de-10000-m2</t>
+  </si>
+  <si>
+    <t>iaest-measure:urbano-solares-de-100-a-500-m2</t>
+  </si>
+  <si>
+    <t>iaest-measure:urbano-parcelas-edificadas-de-100-a-500-m2</t>
+  </si>
+  <si>
     <t>iaest-measure:urbano-parcelas-edificadas-de-mas-de-10000-m2</t>
   </si>
   <si>
-    <t>iaest-dimension:ccaa-nombre</t>
+    <t>iaest-measure:urbano-solares-de-1000-a-10000-m2</t>
+  </si>
+  <si>
+    <t>iaest-measure:urbano-parcelas-edificadas-de-0-a-100-m2</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:urbano-solares-de-1000-a-10000-m2</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>iaest-measure:urbano-solares-de-500-a-1000-m2</t>
-  </si>
-  <si>
-    <t>iaest-measure:urbano-parcelas-edificadas-de-0-a-100-m2</t>
-  </si>
-  <si>
-    <t>iaest-measure:urbano-parcelas-edificadas-de-100-a-500-m2</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:urbano-solares-de-0-a-100-m2</t>
-  </si>
-  <si>
-    <t>iaest-measure:urbano-solares-de-100-a-500-m2</t>
-  </si>
-  <si>
-    <t>iaest-measure:urbano-solares-de-mas-de-10000-m2</t>
-  </si>
-  <si>
-    <t>iaest-measure:urbano-parcelas-edificadas-de-1000-a-10000-m2</t>
-  </si>
-  <si>
-    <t>iaest-measure:urbano-parcelas-edificadas-de-500-a-1000-m2</t>
-  </si>
-  <si>
-    <t>iaest-measure:urbano-solares-total</t>
+    <t>dim</t>
   </si>
   <si>
     <t>medida</t>
   </si>
   <si>
-    <t>dim</t>
+    <t>URI-Comunidad</t>
   </si>
   <si>
     <t>xsd:int</t>
   </si>
   <si>
-    <t>skos:Concept</t>
+    <t>URI-Provincia</t>
   </si>
   <si>
     <t>URI-Municipio</t>
   </si>
   <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
     <t>URI-comarca</t>
   </si>
   <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -293,187 +290,184 @@
         <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
